--- a/Box_Links.xlsx
+++ b/Box_Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suneel_Bharthi\BOX_DATA_SCRAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Suneel_Bharthi\Data Analyst -github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281D2EE-1CB3-47CA-9EE4-79037B464010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54BA5A-980F-4233-8A2F-186DFBA7639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Links</t>
   </si>
   <si>
-    <t>https://box.co.uk/nx-ktdek-002-acer-swift-edge-amd-ryzen-7-8840u-16-gb</t>
+    <t>https://box.co.uk/cq27g2s-bk-aoc-27-in-qhd-va-curved-gaming-monitor</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/vx2718-pc-mhd-viewsonic-vx-series-27-inch-full-hd</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/9h-llalj-lbe-benq-27-full-hd-ips-led-gaming-monitor</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/mly33b-a-apple-macbook-air-m2-octa-core-chip-8gb</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/9d0j9ea-abu-hp-spectre-x360-14-eu0004na-ultra-7-155h</t>
+  </si>
+  <si>
+    <t>https://box.co.uk/82r4007nuk-lenovo-ideapad-1-amd-ryzen-7-5700u-16gb</t>
   </si>
 </sst>
 </file>
@@ -368,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.90625" customWidth="1"/>
+    <col min="1" max="1" width="79.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -390,11 +405,47 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2AF45B57-86B9-4B2C-A039-A93FF4002FA3}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{EFB9CE2F-50B2-40F3-BD38-20B881DFB9C2}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{149313AE-0175-497E-B7B0-8A7AE1955143}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{9A2CDC8E-150D-4C3B-AB1F-909FAB643854}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{7621F2FD-8C57-4392-BC98-BFDB1DAB5602}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{36609DB0-F86C-431E-A4E3-5B205E9074F3}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{DAD202AE-4840-4345-ACB0-53BDFD6130B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
